--- a/scalpel/typeinfer/evaluation/evaluation_outputs/deezer__spleeter.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/deezer__spleeter.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F559"/>
+  <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12163,9 +12163,9 @@
           <t>{'any', 'callable'}</t>
         </is>
       </c>
-      <c r="F366" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F366" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="E378" s="2" t="inlineStr">
         <is>
-          <t>{'tf.compat.v1.train.AdamOptimizer', 'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer'}</t>
+          <t>{'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdamOptimizer'}</t>
         </is>
       </c>
       <c r="F378" s="5" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="E379" s="2" t="inlineStr">
         <is>
-          <t>tf.compat.v1.train.AdamOptimizer</t>
+          <t>tf.compat.v1.train.AdadeltaOptimizer</t>
         </is>
       </c>
       <c r="F379" s="5" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="E404" s="2" t="inlineStr">
         <is>
-          <t>{'tf.compat.v1.train.AdamOptimizer', 'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer'}</t>
+          <t>{'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdamOptimizer'}</t>
         </is>
       </c>
       <c r="F404" s="5" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="E405" s="2" t="inlineStr">
         <is>
-          <t>tf.compat.v1.train.AdamOptimizer</t>
+          <t>tf.compat.v1.train.AdadeltaOptimizer</t>
         </is>
       </c>
       <c r="F405" s="5" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="E500" s="2" t="inlineStr">
         <is>
-          <t>{'ELU', 'LeakyReLU', 'callable', 'ReLU'}</t>
+          <t>{'ELU', 'ReLU', 'LeakyReLU', 'callable'}</t>
         </is>
       </c>
       <c r="F500" s="5" t="inlineStr">
@@ -16579,9 +16579,9 @@
           <t>{'any', 'Conv2D'}</t>
         </is>
       </c>
-      <c r="F504" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F504" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -18304,21 +18304,35 @@
         </is>
       </c>
       <c r="F558" s="2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="inlineStr"/>
       <c r="B559" s="2" t="inlineStr"/>
-      <c r="C559" s="2" t="inlineStr"/>
-      <c r="D559" s="2" t="inlineStr"/>
-      <c r="E559" s="2" t="inlineStr">
+      <c r="C559" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D559" s="2" t="n">
+        <v>1108.7</v>
+      </c>
+      <c r="E559" s="2" t="inlineStr"/>
+      <c r="F559" s="2" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="inlineStr"/>
+      <c r="B560" s="2" t="inlineStr"/>
+      <c r="C560" s="2" t="inlineStr"/>
+      <c r="D560" s="2" t="inlineStr"/>
+      <c r="E560" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F559" s="2" t="n">
-        <v>134.78</v>
+      <c r="F560" s="2" t="n">
+        <v>139.13</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/deezer__spleeter.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/deezer__spleeter.xlsx
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>{'WaveformInputProvider', 'SpectralInputProvider', 'empty'}</t>
+          <t>{'SpectralInputProvider', 'WaveformInputProvider', 'empty'}</t>
         </is>
       </c>
       <c r="F162" s="5" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>WaveformInputProvider</t>
+          <t>SpectralInputProvider</t>
         </is>
       </c>
       <c r="F163" s="5" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>{'WaveformInputProvider', 'SpectralInputProvider', 'empty'}</t>
+          <t>{'SpectralInputProvider', 'WaveformInputProvider', 'empty'}</t>
         </is>
       </c>
       <c r="F176" s="5" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>WaveformInputProvider</t>
+          <t>SpectralInputProvider</t>
         </is>
       </c>
       <c r="F177" s="5" t="inlineStr">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="E366" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'callable'}</t>
+          <t>{'callable', 'any'}</t>
         </is>
       </c>
       <c r="F366" s="5" t="inlineStr">
@@ -12192,12 +12192,12 @@
       </c>
       <c r="E367" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F367" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>callable</t>
+        </is>
+      </c>
+      <c r="F367" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="E372" s="2" t="inlineStr">
         <is>
-          <t>{'WaveformInputProvider', 'SpectralInputProvider', 'empty'}</t>
+          <t>{'SpectralInputProvider', 'WaveformInputProvider', 'empty'}</t>
         </is>
       </c>
       <c r="F372" s="4" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="E373" s="2" t="inlineStr">
         <is>
-          <t>WaveformInputProvider</t>
+          <t>SpectralInputProvider</t>
         </is>
       </c>
       <c r="F373" s="4" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="E378" s="2" t="inlineStr">
         <is>
-          <t>{'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdamOptimizer'}</t>
+          <t>{'tf.compat.v1.train.AdamOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdadeltaOptimizer'}</t>
         </is>
       </c>
       <c r="F378" s="5" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="E379" s="2" t="inlineStr">
         <is>
-          <t>tf.compat.v1.train.AdadeltaOptimizer</t>
+          <t>tf.compat.v1.train.AdamOptimizer</t>
         </is>
       </c>
       <c r="F379" s="5" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="E398" s="2" t="inlineStr">
         <is>
-          <t>{'WaveformInputProvider', 'SpectralInputProvider', 'empty'}</t>
+          <t>{'SpectralInputProvider', 'WaveformInputProvider', 'empty'}</t>
         </is>
       </c>
       <c r="F398" s="4" t="inlineStr">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="E399" s="2" t="inlineStr">
         <is>
-          <t>WaveformInputProvider</t>
+          <t>SpectralInputProvider</t>
         </is>
       </c>
       <c r="F399" s="4" t="inlineStr">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="E404" s="2" t="inlineStr">
         <is>
-          <t>{'tf.compat.v1.train.AdadeltaOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdamOptimizer'}</t>
+          <t>{'tf.compat.v1.train.AdamOptimizer', 'tf.compat.v1.train.GradientDescentOptimizer', 'tf.compat.v1.train.AdadeltaOptimizer'}</t>
         </is>
       </c>
       <c r="F404" s="5" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="E405" s="2" t="inlineStr">
         <is>
-          <t>tf.compat.v1.train.AdadeltaOptimizer</t>
+          <t>tf.compat.v1.train.AdamOptimizer</t>
         </is>
       </c>
       <c r="F405" s="5" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="E500" s="2" t="inlineStr">
         <is>
-          <t>{'ELU', 'ReLU', 'LeakyReLU', 'callable'}</t>
+          <t>{'ELU', 'LeakyReLU', 'ReLU', 'callable'}</t>
         </is>
       </c>
       <c r="F500" s="5" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="E502" s="2" t="inlineStr">
         <is>
-          <t>{'ELU', 'LeakyReLU', 'callable', 'ReLU'}</t>
+          <t>{'ELU', 'LeakyReLU', 'ReLU', 'callable'}</t>
         </is>
       </c>
       <c r="F502" s="5" t="inlineStr">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="E504" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Conv2D'}</t>
+          <t>{'Conv2D', 'any'}</t>
         </is>
       </c>
       <c r="F504" s="5" t="inlineStr">
@@ -16608,12 +16608,12 @@
       </c>
       <c r="E505" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F505" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>Conv2D</t>
+        </is>
+      </c>
+      <c r="F505" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -18304,22 +18304,22 @@
         </is>
       </c>
       <c r="F558" s="2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="inlineStr"/>
       <c r="B559" s="2" t="inlineStr"/>
-      <c r="C559" s="2" t="inlineStr">
+      <c r="C559" s="2" t="inlineStr"/>
+      <c r="D559" s="2" t="inlineStr"/>
+      <c r="E559" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D559" s="2" t="n">
-        <v>1108.7</v>
-      </c>
-      <c r="E559" s="2" t="inlineStr"/>
-      <c r="F559" s="2" t="inlineStr"/>
+      <c r="F559" s="2" t="n">
+        <v>91.73</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="inlineStr"/>
@@ -18328,11 +18328,11 @@
       <c r="D560" s="2" t="inlineStr"/>
       <c r="E560" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F560" s="2" t="n">
-        <v>139.13</v>
+        <v>143.48</v>
       </c>
     </row>
   </sheetData>
